--- a/people.xlsx
+++ b/people.xlsx
@@ -1,83 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Subscription</t>
-  </si>
-  <si>
-    <t>Employment</t>
-  </si>
-  <si>
-    <t>Sophia Kim</t>
-  </si>
-  <si>
-    <t>Subscribed</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Jason Lee</t>
-  </si>
-  <si>
-    <t>Not Subscribed</t>
-  </si>
-  <si>
-    <t>Evelyn Kim</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>None222</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,36 +56,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,129 +435,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="16.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Subscription</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sophia Kim</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jason Lees</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Evelyn Kim</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>None11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jason Lees</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jason Lees</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sophia Kim</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>123</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>302</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sophia Kim</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>123</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sophia Kim</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>123</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sophia Kim</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>123</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sophia Kim</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>123</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -58,7 +64,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -68,6 +74,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -440,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,14 +457,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="16.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="16.86214285714286" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="16.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -465,12 +474,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Subscription</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Employment</t>
         </is>
@@ -484,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,155 +508,165 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Sophia Kim</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Subscribed</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Employed</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Jason Lees</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Not Subscribed</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Employed</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Evelyn Kim</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Last try</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Subscribed</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Employed</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Brian</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1738</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" s="6" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>None11</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Nonee</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-    </row>
-    <row r="11">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>Juice Wrld</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -655,266 +674,6 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Jason Lees</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Not Subscribed</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jason Lees</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>29</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Not Subscribed</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Sophia Kim</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>123</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sophia Kim</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>123</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sophia Kim</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>123</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sophia Kim</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>123</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sophia Kim</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>123</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>Employed</t>
         </is>

--- a/people.xlsx
+++ b/people.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,115 +570,51 @@
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Brian</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>None11</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>999</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Employed</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Nonee</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
+    <row r="8" ht="18" customHeight="1"/>
+    <row r="9" ht="18" customHeight="1"/>
+    <row r="10" ht="18" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/people.xlsx
+++ b/people.xlsx
@@ -488,17 +488,15 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>Mary Ann</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>31</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,40 +506,40 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Sophia Kim</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>123</v>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Subscribed</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="B3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Jason Lees</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Not Subscribed</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Employed</t>
         </is>
@@ -550,39 +548,35 @@
     <row r="5" ht="18" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Last try</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+          <t>Mack Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
+          <t xml:space="preserve">John Smith </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -594,15 +588,15 @@
     <row r="7" ht="18" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Juice Wrld</t>
+          <t xml:space="preserve">Mary Jones </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>999</v>
+        <v>32</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
